--- a/content/simulator/Period 0.xlsx
+++ b/content/simulator/Period 0.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/GitHub/website/content/simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5FC529B-6F99-4C36-87FC-7EF36BC453F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{775E8413-B687-456C-9222-8946FB1E2BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{81E37B7F-3547-41B8-9BFB-DC6D10B6E052}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB518A5F-F8EF-40F9-B2DC-4C42D8D7B12E}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodo 0" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
     <t>TEAM 8</t>
   </si>
   <si>
-    <t>TEAM 9</t>
+    <t>COMPUTER 1</t>
   </si>
   <si>
-    <t>TEAM 10</t>
+    <t>COMPUTER 2</t>
   </si>
   <si>
     <t>MARKET DATA</t>
@@ -582,7 +582,7 @@
     <t xml:space="preserve">   Accumulated Depreciation</t>
   </si>
   <si>
-    <t>Team 9</t>
+    <t>Computer 1</t>
   </si>
   <si>
     <t>Research [Depreciation]</t>
@@ -594,7 +594,7 @@
     <t>Dollars</t>
   </si>
   <si>
-    <t>Team 10</t>
+    <t>Computer 2</t>
   </si>
   <si>
     <t>Administrative Costs</t>
@@ -816,7 +816,7 @@
     <t>Debt Value [Bank]</t>
   </si>
   <si>
-    <t>Central Bank Bills</t>
+    <t>Short term bills</t>
   </si>
   <si>
     <t>Debt Value [Bonds]</t>
@@ -3089,7 +3089,7 @@
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Millares_Simulador VBMfinal" xfId="3" xr:uid="{3C31B7CE-2ABD-413F-8219-D4033FD5DBD1}"/>
+    <cellStyle name="Millares_Simulador VBMfinal" xfId="3" xr:uid="{29662803-8E0C-412B-B3BB-FE38BC771931}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -8587,7 +8587,7 @@
         </row>
         <row r="16">
           <cell r="C16" t="str">
-            <v>Team 9</v>
+            <v>Computer 1</v>
           </cell>
           <cell r="F16">
             <v>1.5</v>
@@ -8625,7 +8625,7 @@
         </row>
         <row r="17">
           <cell r="C17" t="str">
-            <v>Team 10</v>
+            <v>Computer 2</v>
           </cell>
           <cell r="F17">
             <v>1.5</v>
@@ -9075,16 +9075,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F56BA7-DAC1-4DBC-BDB3-6864DA7CC70B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88179163-D9FA-4C05-8889-82C15A0801AF}">
   <sheetPr codeName="Hoja9">
     <tabColor theme="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B5:DR145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
